--- a/6/1/1/3/6/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/6/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Serie</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3903,6 +3906,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="60" spans="1:18">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60">
+        <v>-43</v>
+      </c>
+      <c r="C60">
+        <v>-43</v>
+      </c>
+      <c r="D60">
+        <v>1465</v>
+      </c>
+      <c r="E60">
+        <v>1508</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>2973</v>
+      </c>
+      <c r="J60">
+        <v>2973</v>
+      </c>
+      <c r="K60">
+        <v>88</v>
+      </c>
+      <c r="L60">
+        <v>238</v>
+      </c>
+      <c r="M60">
+        <v>907</v>
+      </c>
+      <c r="N60">
+        <v>385</v>
+      </c>
+      <c r="O60">
+        <v>1220</v>
+      </c>
+      <c r="P60">
+        <v>136</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
